--- a/survey_shiny/bb4FAIR_app/quantitative.xlsx
+++ b/survey_shiny/bb4FAIR_app/quantitative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonella\Desktop\bbdataeng\bb4FAIR\survey_shiny\bb4FAIR_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonella\Desktop\bbdataeng\BB4FAIR\survey_shiny\bb4FAIR_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2910DFD-ED97-48A4-ACD2-B726D85CCC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCEB620-E86A-448D-AA60-8F80ADA9804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F7AB23C0-CB02-9747-AE70-BC97953980D3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>CDM</t>
   </si>
@@ -96,9 +96,6 @@
     <t>IT contact person</t>
   </si>
   <si>
-    <t>personnel</t>
-  </si>
-  <si>
     <t>dedicated personnel</t>
   </si>
   <si>
@@ -111,18 +108,12 @@
     <t xml:space="preserve"> nello script punteggio additivo ad ogni ontologia con tetto a 3 pp</t>
   </si>
   <si>
-    <t>infrastructure</t>
-  </si>
-  <si>
     <t>parziale se indicato anche un non-LIMS</t>
   </si>
   <si>
     <t>clinical record</t>
   </si>
   <si>
-    <t>dati</t>
-  </si>
-  <si>
     <t>IT infrastructure</t>
   </si>
   <si>
@@ -139,6 +130,60 @@
   </si>
   <si>
     <t>informed consent</t>
+  </si>
+  <si>
+    <t>IT Head</t>
+  </si>
+  <si>
+    <t>Dedicated Personnel</t>
+  </si>
+  <si>
+    <t>Ontologies Richness</t>
+  </si>
+  <si>
+    <t>Common Data Models</t>
+  </si>
+  <si>
+    <t>BIMS</t>
+  </si>
+  <si>
+    <t>Clinical Data Availability</t>
+  </si>
+  <si>
+    <t>Data Warehouse</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Informed Consent</t>
+  </si>
+  <si>
+    <t>Registry Data Availability</t>
+  </si>
+  <si>
+    <t>Massive Storage</t>
+  </si>
+  <si>
+    <t>Data Server</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>Service Resources</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>Personnel</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -594,49 +639,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA798F7C-5D78-6243-951F-FE12BBFC2634}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="3" customWidth="1"/>
-    <col min="4" max="6" width="11" style="3"/>
-    <col min="7" max="7" width="40.875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="11" style="3"/>
+    <col min="2" max="3" width="24.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="11" style="3"/>
+    <col min="8" max="8" width="40.875" style="3" customWidth="1"/>
+    <col min="9" max="11" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -644,69 +692,78 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -714,19 +771,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>13</v>
       </c>
@@ -734,42 +794,48 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>16</v>
       </c>
@@ -777,39 +843,45 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>19</v>
       </c>
@@ -817,39 +889,45 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>22</v>
       </c>
@@ -857,84 +935,96 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G15">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
